--- a/data/pca/factorExposure/factorExposure_2017-04-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01782847823765082</v>
+        <v>0.01010350744973238</v>
       </c>
       <c r="C2">
-        <v>-0.01549918200183741</v>
+        <v>-0.04145122223264835</v>
       </c>
       <c r="D2">
-        <v>0.03173985806322955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02950572700522928</v>
+      </c>
+      <c r="E2">
+        <v>0.0368072834275274</v>
+      </c>
+      <c r="F2">
+        <v>0.005344807589319031</v>
+      </c>
+      <c r="G2">
+        <v>-0.1032071878411285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0224742758916107</v>
+        <v>0.04147259644613812</v>
       </c>
       <c r="C3">
-        <v>0.01081929915141398</v>
+        <v>-0.1021159204448188</v>
       </c>
       <c r="D3">
-        <v>0.102868169505248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0175904662746424</v>
+      </c>
+      <c r="E3">
+        <v>0.100068396335048</v>
+      </c>
+      <c r="F3">
+        <v>0.002746263276449723</v>
+      </c>
+      <c r="G3">
+        <v>-0.1626012200224145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02619379284239488</v>
+        <v>0.056291301763047</v>
       </c>
       <c r="C4">
-        <v>-0.004278002947582783</v>
+        <v>-0.06803395509560306</v>
       </c>
       <c r="D4">
-        <v>0.08243516881799869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0244833436910024</v>
+      </c>
+      <c r="E4">
+        <v>0.03291164941953488</v>
+      </c>
+      <c r="F4">
+        <v>0.009961622642364748</v>
+      </c>
+      <c r="G4">
+        <v>-0.1009938764454279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01172116558981159</v>
+        <v>0.03669984219156262</v>
       </c>
       <c r="C6">
-        <v>-0.01018072641808199</v>
+        <v>-0.05119655821907104</v>
       </c>
       <c r="D6">
-        <v>0.07849045115918778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01704503589274915</v>
+      </c>
+      <c r="E6">
+        <v>0.03672342784964613</v>
+      </c>
+      <c r="F6">
+        <v>0.007028531960859903</v>
+      </c>
+      <c r="G6">
+        <v>-0.08475469752977541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.005628275405031693</v>
+        <v>0.02086289652555224</v>
       </c>
       <c r="C7">
-        <v>-0.01121604336765825</v>
+        <v>-0.03966294313790993</v>
       </c>
       <c r="D7">
-        <v>0.03705887446573891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01400858906026796</v>
+      </c>
+      <c r="E7">
+        <v>0.006195334039113716</v>
+      </c>
+      <c r="F7">
+        <v>-0.004278923170108154</v>
+      </c>
+      <c r="G7">
+        <v>-0.1219207119356845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0003699337917936227</v>
+        <v>0.003638662063547194</v>
       </c>
       <c r="C8">
-        <v>-0.0006306318818831521</v>
+        <v>-0.0250439475317361</v>
       </c>
       <c r="D8">
-        <v>-0.003283929026486203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.00376806357995008</v>
+      </c>
+      <c r="E8">
+        <v>0.02844831579791207</v>
+      </c>
+      <c r="F8">
+        <v>0.006065751059982917</v>
+      </c>
+      <c r="G8">
+        <v>-0.06704362883734383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01612581437763786</v>
+        <v>0.03403161793046203</v>
       </c>
       <c r="C9">
-        <v>-0.003276264310366385</v>
+        <v>-0.05043453211920722</v>
       </c>
       <c r="D9">
-        <v>0.06074114407222255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01645096660572266</v>
+      </c>
+      <c r="E9">
+        <v>0.02288459680578352</v>
+      </c>
+      <c r="F9">
+        <v>0.005387942585266737</v>
+      </c>
+      <c r="G9">
+        <v>-0.1008754301454527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.114706568793969</v>
+        <v>0.09915141009886586</v>
       </c>
       <c r="C10">
-        <v>0.1416753350051275</v>
+        <v>0.1828652581489539</v>
       </c>
       <c r="D10">
-        <v>-0.1007456583098256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01559825396740091</v>
+      </c>
+      <c r="E10">
+        <v>0.01979676750252982</v>
+      </c>
+      <c r="F10">
+        <v>-0.02235437468178032</v>
+      </c>
+      <c r="G10">
+        <v>-0.05628011366184683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0006874323603344181</v>
+        <v>0.03414682545335024</v>
       </c>
       <c r="C11">
-        <v>-0.0007364019855407717</v>
+        <v>-0.05316747024363551</v>
       </c>
       <c r="D11">
-        <v>0.05261981998206915</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002522117867581085</v>
+      </c>
+      <c r="E11">
+        <v>0.01746028146440556</v>
+      </c>
+      <c r="F11">
+        <v>0.01987437318461681</v>
+      </c>
+      <c r="G11">
+        <v>-0.09128401233891598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004673456891467262</v>
+        <v>0.03571826005340908</v>
       </c>
       <c r="C12">
-        <v>-0.00340175968170888</v>
+        <v>-0.04809420078230846</v>
       </c>
       <c r="D12">
-        <v>0.04564572399846667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006566049915296321</v>
+      </c>
+      <c r="E12">
+        <v>0.009175858927081436</v>
+      </c>
+      <c r="F12">
+        <v>0.00104287942450719</v>
+      </c>
+      <c r="G12">
+        <v>-0.08322883095590726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02079824209604507</v>
+        <v>0.01541984132413503</v>
       </c>
       <c r="C13">
-        <v>-0.008320201261127239</v>
+        <v>-0.04209028180575272</v>
       </c>
       <c r="D13">
-        <v>0.03494365632793006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02648388257585177</v>
+      </c>
+      <c r="E13">
+        <v>0.03714008725438647</v>
+      </c>
+      <c r="F13">
+        <v>0.004528242663141881</v>
+      </c>
+      <c r="G13">
+        <v>-0.1400074855561683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.005610441441887175</v>
+        <v>0.008302687246656852</v>
       </c>
       <c r="C14">
-        <v>-0.004094474154314309</v>
+        <v>-0.02911958432104206</v>
       </c>
       <c r="D14">
-        <v>0.01940183563298944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01019322080692971</v>
+      </c>
+      <c r="E14">
+        <v>0.006831962290963211</v>
+      </c>
+      <c r="F14">
+        <v>-0.007543715710932862</v>
+      </c>
+      <c r="G14">
+        <v>-0.1053000845142095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.003337705050905956</v>
+        <v>0.03277153609804105</v>
       </c>
       <c r="C16">
-        <v>0.002720043130613756</v>
+        <v>-0.04645341457602548</v>
       </c>
       <c r="D16">
-        <v>0.04166243609042532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002006782861319115</v>
+      </c>
+      <c r="E16">
+        <v>0.01529813952905295</v>
+      </c>
+      <c r="F16">
+        <v>0.001659723004950078</v>
+      </c>
+      <c r="G16">
+        <v>-0.09298915143088297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01139430151988251</v>
+        <v>0.02288526779053731</v>
       </c>
       <c r="C19">
-        <v>-0.006550665580985509</v>
+        <v>-0.05131160139466119</v>
       </c>
       <c r="D19">
-        <v>0.03970676652555011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01906309220116719</v>
+      </c>
+      <c r="E19">
+        <v>0.07879726769076052</v>
+      </c>
+      <c r="F19">
+        <v>0.01928551866346941</v>
+      </c>
+      <c r="G19">
+        <v>-0.1385089649750404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.006646694094134604</v>
+        <v>0.01522667996019882</v>
       </c>
       <c r="C20">
-        <v>-0.008520146587615511</v>
+        <v>-0.04175853560829976</v>
       </c>
       <c r="D20">
-        <v>0.03430296168712235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01425032359492968</v>
+      </c>
+      <c r="E20">
+        <v>0.03844613889219304</v>
+      </c>
+      <c r="F20">
+        <v>-0.01244869361523142</v>
+      </c>
+      <c r="G20">
+        <v>-0.1110818759246543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01579216140984992</v>
+        <v>0.01247157079639077</v>
       </c>
       <c r="C21">
-        <v>-0.001423417382769187</v>
+        <v>-0.03827120923416851</v>
       </c>
       <c r="D21">
-        <v>0.02373319110726999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01920138222475347</v>
+      </c>
+      <c r="E21">
+        <v>0.04972769746590221</v>
+      </c>
+      <c r="F21">
+        <v>-0.0005753274512147793</v>
+      </c>
+      <c r="G21">
+        <v>-0.1376894665553983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001356332688021375</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0004576044768303516</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.000626704235936459</v>
+      </c>
+      <c r="E22">
+        <v>0.004050339704673779</v>
+      </c>
+      <c r="F22">
+        <v>0.001854509115475681</v>
+      </c>
+      <c r="G22">
+        <v>-0.005731085397913818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001361896634515582</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0004692915713962011</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0006255441201399176</v>
+      </c>
+      <c r="E23">
+        <v>0.004037597150392325</v>
+      </c>
+      <c r="F23">
+        <v>0.001860359914705028</v>
+      </c>
+      <c r="G23">
+        <v>-0.005623565210608957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0004002295907837742</v>
+        <v>0.02804882706774607</v>
       </c>
       <c r="C24">
-        <v>-0.007778145497869142</v>
+        <v>-0.050834882313828</v>
       </c>
       <c r="D24">
-        <v>0.04550870194058706</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007303985651478091</v>
+      </c>
+      <c r="E24">
+        <v>0.01243549499514499</v>
+      </c>
+      <c r="F24">
+        <v>0.01166245896622119</v>
+      </c>
+      <c r="G24">
+        <v>-0.09168464439802683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01568645853214429</v>
+        <v>0.04224800881663896</v>
       </c>
       <c r="C25">
-        <v>0.001910980251440592</v>
+        <v>-0.05805396290411419</v>
       </c>
       <c r="D25">
-        <v>0.05747465592918197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01128309471943383</v>
+      </c>
+      <c r="E25">
+        <v>0.004120878585452519</v>
+      </c>
+      <c r="F25">
+        <v>0.005389420741460357</v>
+      </c>
+      <c r="G25">
+        <v>-0.09970411991635518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01836254255036501</v>
+        <v>0.01396900984208426</v>
       </c>
       <c r="C26">
-        <v>-0.01229583085599025</v>
+        <v>-0.01251927774785292</v>
       </c>
       <c r="D26">
-        <v>0.0003898480250972706</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02415108389594383</v>
+      </c>
+      <c r="E26">
+        <v>0.009218387213570175</v>
+      </c>
+      <c r="F26">
+        <v>-0.008268161691329204</v>
+      </c>
+      <c r="G26">
+        <v>-0.08269350339511367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1627635432910704</v>
+        <v>0.1257306182402959</v>
       </c>
       <c r="C28">
-        <v>0.1783435840336135</v>
+        <v>0.239768829908573</v>
       </c>
       <c r="D28">
-        <v>-0.1285537068845876</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006516265728737897</v>
+      </c>
+      <c r="E28">
+        <v>0.009158360838366625</v>
+      </c>
+      <c r="F28">
+        <v>-0.01580072254873837</v>
+      </c>
+      <c r="G28">
+        <v>-0.04841368327396316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01114362268502874</v>
+        <v>0.009100555712725908</v>
       </c>
       <c r="C29">
-        <v>0.002865126459703388</v>
+        <v>-0.02332140354241295</v>
       </c>
       <c r="D29">
-        <v>0.01933964691223813</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009241718878991853</v>
+      </c>
+      <c r="E29">
+        <v>0.004247681348775251</v>
+      </c>
+      <c r="F29">
+        <v>-0.01434644479999222</v>
+      </c>
+      <c r="G29">
+        <v>-0.09645186663008765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01502032949581109</v>
+        <v>0.04154646135306764</v>
       </c>
       <c r="C30">
-        <v>-0.01981011652101262</v>
+        <v>-0.06966729975769062</v>
       </c>
       <c r="D30">
-        <v>0.09793962203885034</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02892895678295512</v>
+      </c>
+      <c r="E30">
+        <v>0.05986440630203137</v>
+      </c>
+      <c r="F30">
+        <v>0.04415152884727153</v>
+      </c>
+      <c r="G30">
+        <v>-0.1334964496419208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02255108465222636</v>
+        <v>0.05325041763254242</v>
       </c>
       <c r="C31">
-        <v>0.01846116135371208</v>
+        <v>-0.03786307177899987</v>
       </c>
       <c r="D31">
-        <v>0.03068216199909689</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.00378821450645492</v>
+      </c>
+      <c r="E31">
+        <v>5.573738040235178e-05</v>
+      </c>
+      <c r="F31">
+        <v>-0.03966597475587755</v>
+      </c>
+      <c r="G31">
+        <v>-0.09921448137871909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001990618368780836</v>
+        <v>0.003027616567827307</v>
       </c>
       <c r="C32">
-        <v>0.01513257697863715</v>
+        <v>-0.02355175514696991</v>
       </c>
       <c r="D32">
-        <v>0.004108150182352464</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002965874300260993</v>
+      </c>
+      <c r="E32">
+        <v>0.03345818476804473</v>
+      </c>
+      <c r="F32">
+        <v>0.042677330541075</v>
+      </c>
+      <c r="G32">
+        <v>-0.08694993142141863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.009757198704698579</v>
+        <v>0.02808399499545618</v>
       </c>
       <c r="C33">
-        <v>-0.005939154949745297</v>
+        <v>-0.05021398438585057</v>
       </c>
       <c r="D33">
-        <v>0.04234337793811978</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0157828461514498</v>
+      </c>
+      <c r="E33">
+        <v>0.0438505278347272</v>
+      </c>
+      <c r="F33">
+        <v>0.01478902246034218</v>
+      </c>
+      <c r="G33">
+        <v>-0.162904194734919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004455601587163992</v>
+        <v>0.03971513095454211</v>
       </c>
       <c r="C34">
-        <v>0.01363301757511105</v>
+        <v>-0.05964045722242436</v>
       </c>
       <c r="D34">
-        <v>0.05672200646419078</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004429245969042524</v>
+      </c>
+      <c r="E34">
+        <v>0.007530928637868842</v>
+      </c>
+      <c r="F34">
+        <v>0.02084385280992005</v>
+      </c>
+      <c r="G34">
+        <v>-0.09474361101129575</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01644367643082846</v>
+        <v>0.01633182419347971</v>
       </c>
       <c r="C36">
-        <v>0.002952763760572117</v>
+        <v>-0.009598541026700286</v>
       </c>
       <c r="D36">
-        <v>0.004176481784225174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01252935664882596</v>
+      </c>
+      <c r="E36">
+        <v>0.008446383880979352</v>
+      </c>
+      <c r="F36">
+        <v>-0.007579095184790078</v>
+      </c>
+      <c r="G36">
+        <v>-0.09208211508314179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0103543173989117</v>
+        <v>0.03139492011758357</v>
       </c>
       <c r="C38">
-        <v>0.02305672295730981</v>
+        <v>-0.03064499246288286</v>
       </c>
       <c r="D38">
-        <v>0.04063109536749067</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.00742936526155543</v>
+      </c>
+      <c r="E38">
+        <v>0.007088247066137776</v>
+      </c>
+      <c r="F38">
+        <v>-0.01809867668959074</v>
+      </c>
+      <c r="G38">
+        <v>-0.08644668261072787</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.007886153594970344</v>
+        <v>0.03624145339823163</v>
       </c>
       <c r="C39">
-        <v>-0.02306817863362539</v>
+        <v>-0.07991042977522136</v>
       </c>
       <c r="D39">
-        <v>0.09932823872446069</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01180465741838242</v>
+      </c>
+      <c r="E39">
+        <v>0.02929573904655351</v>
+      </c>
+      <c r="F39">
+        <v>0.02241259904032938</v>
+      </c>
+      <c r="G39">
+        <v>-0.0909760440059128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01668619257276876</v>
+        <v>0.01360555452727333</v>
       </c>
       <c r="C40">
-        <v>0.003420059002458413</v>
+        <v>-0.03995863982170717</v>
       </c>
       <c r="D40">
-        <v>0.03440742849371223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01473308847640396</v>
+      </c>
+      <c r="E40">
+        <v>0.03120757127814337</v>
+      </c>
+      <c r="F40">
+        <v>-0.007504672686774718</v>
+      </c>
+      <c r="G40">
+        <v>-0.122428290569677</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01472234857678651</v>
+        <v>0.0205525770163143</v>
       </c>
       <c r="C41">
-        <v>0.01242565001087197</v>
+        <v>-0.002695406242391592</v>
       </c>
       <c r="D41">
-        <v>-0.009496566819860025</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004473791783088676</v>
+      </c>
+      <c r="E41">
+        <v>0.007563131847081773</v>
+      </c>
+      <c r="F41">
+        <v>-0.01516018233120394</v>
+      </c>
+      <c r="G41">
+        <v>-0.0860020362328357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.06020065162843893</v>
+        <v>0.01000669687135426</v>
       </c>
       <c r="C42">
-        <v>-0.07446458481062945</v>
+        <v>-0.03546504001458893</v>
       </c>
       <c r="D42">
-        <v>0.1584306755127145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0895294176638415</v>
+      </c>
+      <c r="E42">
+        <v>0.02057476403612203</v>
+      </c>
+      <c r="F42">
+        <v>-0.0461913906222368</v>
+      </c>
+      <c r="G42">
+        <v>0.02608975300451707</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01522714487536757</v>
+        <v>0.03512497299071245</v>
       </c>
       <c r="C43">
-        <v>0.0118716789666597</v>
+        <v>-0.01835096656680777</v>
       </c>
       <c r="D43">
-        <v>-0.0102636109058051</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.005866471182408689</v>
+      </c>
+      <c r="E43">
+        <v>0.02071367544189888</v>
+      </c>
+      <c r="F43">
+        <v>-0.007406394676125095</v>
+      </c>
+      <c r="G43">
+        <v>-0.1197400257386501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002074139949094685</v>
+        <v>0.01366864672446399</v>
       </c>
       <c r="C44">
-        <v>-0.002046563284924275</v>
+        <v>-0.05917900332528381</v>
       </c>
       <c r="D44">
-        <v>0.05246984459721112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.00700257322543274</v>
+      </c>
+      <c r="E44">
+        <v>0.02527285766319697</v>
+      </c>
+      <c r="F44">
+        <v>-0.003693872067083292</v>
+      </c>
+      <c r="G44">
+        <v>-0.1112321200771973</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.009475657058398861</v>
+        <v>0.008052602413131431</v>
       </c>
       <c r="C46">
-        <v>-0.003677879477048644</v>
+        <v>-0.01440973492586377</v>
       </c>
       <c r="D46">
-        <v>-0.003998812849426219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01269362542402544</v>
+      </c>
+      <c r="E46">
+        <v>0.00154925706370743</v>
+      </c>
+      <c r="F46">
+        <v>-0.01572786900202872</v>
+      </c>
+      <c r="G46">
+        <v>-0.1061408714868661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.01825663599663381</v>
+        <v>0.07743431018611556</v>
       </c>
       <c r="C47">
-        <v>0.02323527763519239</v>
+        <v>-0.06876414716249261</v>
       </c>
       <c r="D47">
-        <v>0.07258107544772929</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004816377260654851</v>
+      </c>
+      <c r="E47">
+        <v>-0.005420370438989357</v>
+      </c>
+      <c r="F47">
+        <v>-0.05316447195610542</v>
+      </c>
+      <c r="G47">
+        <v>-0.08549611622610984</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.008751916815924613</v>
+        <v>0.0188823645113588</v>
       </c>
       <c r="C48">
-        <v>0.008396977236783187</v>
+        <v>-0.01290422774905857</v>
       </c>
       <c r="D48">
-        <v>0.01556972877040787</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002249631911332019</v>
+      </c>
+      <c r="E48">
+        <v>0.004993138233016336</v>
+      </c>
+      <c r="F48">
+        <v>-0.01929558137779805</v>
+      </c>
+      <c r="G48">
+        <v>-0.0972116512132138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.02594122069629645</v>
+        <v>0.07559341652803281</v>
       </c>
       <c r="C50">
-        <v>0.02971674739165416</v>
+        <v>-0.07220478905864852</v>
       </c>
       <c r="D50">
-        <v>0.06923694284248601</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002239391821370627</v>
+      </c>
+      <c r="E50">
+        <v>-0.00292153015605897</v>
+      </c>
+      <c r="F50">
+        <v>-0.05534864630808806</v>
+      </c>
+      <c r="G50">
+        <v>-0.09255170432108982</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007960640065584848</v>
+        <v>0.0144702093652831</v>
       </c>
       <c r="C51">
-        <v>0.0003452303062475746</v>
+        <v>-0.03663924972431561</v>
       </c>
       <c r="D51">
-        <v>0.01766520735766094</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01071811002503983</v>
+      </c>
+      <c r="E51">
+        <v>0.02560513398830451</v>
+      </c>
+      <c r="F51">
+        <v>0.02455219255168228</v>
+      </c>
+      <c r="G51">
+        <v>-0.1231576331011185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.02948449901145212</v>
+        <v>0.08180707944165343</v>
       </c>
       <c r="C53">
-        <v>0.0329059996052118</v>
+        <v>-0.08536228586828498</v>
       </c>
       <c r="D53">
-        <v>0.1267735618129906</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00350509648265549</v>
+      </c>
+      <c r="E53">
+        <v>-0.0248565932395133</v>
+      </c>
+      <c r="F53">
+        <v>-0.06456501026016634</v>
+      </c>
+      <c r="G53">
+        <v>-0.09208421747338806</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01261075456382179</v>
+        <v>0.03168986482390464</v>
       </c>
       <c r="C54">
-        <v>0.0192169520125658</v>
+        <v>-0.01890052688898691</v>
       </c>
       <c r="D54">
-        <v>-0.002209294465749077</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001287783363792581</v>
+      </c>
+      <c r="E54">
+        <v>0.01821065285181486</v>
+      </c>
+      <c r="F54">
+        <v>-0.005579541123165278</v>
+      </c>
+      <c r="G54">
+        <v>-0.1070873526193027</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.01628320927359806</v>
+        <v>0.07189736936098816</v>
       </c>
       <c r="C55">
-        <v>0.01916946759036814</v>
+        <v>-0.06829885289662296</v>
       </c>
       <c r="D55">
-        <v>0.1002209035503792</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005097024788908939</v>
+      </c>
+      <c r="E55">
+        <v>-0.02281765454549124</v>
+      </c>
+      <c r="F55">
+        <v>-0.06468138784131151</v>
+      </c>
+      <c r="G55">
+        <v>-0.06974338284865771</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.03096293423414822</v>
+        <v>0.1361098490484346</v>
       </c>
       <c r="C56">
-        <v>0.04008678705435214</v>
+        <v>-0.1078757702974418</v>
       </c>
       <c r="D56">
-        <v>0.1543404011666462</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01248046037577568</v>
+      </c>
+      <c r="E56">
+        <v>-0.03248709159587891</v>
+      </c>
+      <c r="F56">
+        <v>-0.08138883363063192</v>
+      </c>
+      <c r="G56">
+        <v>-0.04220954634673452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02222532567877034</v>
+        <v>0.005750963398565489</v>
       </c>
       <c r="C57">
-        <v>-0.008747575222337708</v>
+        <v>-0.006574176160410953</v>
       </c>
       <c r="D57">
-        <v>0.03223728691642393</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02285524653889671</v>
+      </c>
+      <c r="E57">
+        <v>0.02499026352214887</v>
+      </c>
+      <c r="F57">
+        <v>0.00873540954194584</v>
+      </c>
+      <c r="G57">
+        <v>-0.02400561013286663</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01823697758564337</v>
+        <v>0.05368236189351095</v>
       </c>
       <c r="C58">
-        <v>0.01784194485788166</v>
+        <v>-0.04707971909617045</v>
       </c>
       <c r="D58">
-        <v>0.1293052751169554</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.01991125383335625</v>
+      </c>
+      <c r="E58">
+        <v>0.9157530322612989</v>
+      </c>
+      <c r="F58">
+        <v>-0.2610365558973975</v>
+      </c>
+      <c r="G58">
+        <v>0.227469828043589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1789316067135812</v>
+        <v>0.16058947102063</v>
       </c>
       <c r="C59">
-        <v>0.2033323328660669</v>
+        <v>0.2053021978239222</v>
       </c>
       <c r="D59">
-        <v>-0.1067757117156206</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01172217186184913</v>
+      </c>
+      <c r="E59">
+        <v>0.01851075539662858</v>
+      </c>
+      <c r="F59">
+        <v>-0.002670183246918053</v>
+      </c>
+      <c r="G59">
+        <v>-0.04126088354538807</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1477950112647349</v>
+        <v>0.2879681757675781</v>
       </c>
       <c r="C60">
-        <v>0.1388981481377617</v>
+        <v>-0.1086708854246404</v>
       </c>
       <c r="D60">
-        <v>0.1409546126767416</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01183104084010303</v>
+      </c>
+      <c r="E60">
+        <v>-0.003147879889574903</v>
+      </c>
+      <c r="F60">
+        <v>0.3389118895999617</v>
+      </c>
+      <c r="G60">
+        <v>0.1638890918358068</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.001754359963193297</v>
+        <v>0.03893678590482243</v>
       </c>
       <c r="C61">
-        <v>-0.003247056571102865</v>
+        <v>-0.0658972482529217</v>
       </c>
       <c r="D61">
-        <v>0.07369707185631001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005536389057360561</v>
+      </c>
+      <c r="E61">
+        <v>0.02345307422153283</v>
+      </c>
+      <c r="F61">
+        <v>0.01367680167850873</v>
+      </c>
+      <c r="G61">
+        <v>-0.09610642162836096</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.00547097296458024</v>
+        <v>0.01594283688537762</v>
       </c>
       <c r="C63">
-        <v>-0.005195446147911314</v>
+        <v>-0.03115968003764023</v>
       </c>
       <c r="D63">
-        <v>0.02466636318426935</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008457500282892631</v>
+      </c>
+      <c r="E63">
+        <v>0.003289306450273179</v>
+      </c>
+      <c r="F63">
+        <v>-0.01755121143825244</v>
+      </c>
+      <c r="G63">
+        <v>-0.09146051763115147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02334765415400884</v>
+        <v>0.04885355622958837</v>
       </c>
       <c r="C64">
-        <v>0.01817227575528286</v>
+        <v>-0.04655263764797413</v>
       </c>
       <c r="D64">
-        <v>0.06115625996170208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006585149851984246</v>
+      </c>
+      <c r="E64">
+        <v>0.009015387037888676</v>
+      </c>
+      <c r="F64">
+        <v>0.008831027349350332</v>
+      </c>
+      <c r="G64">
+        <v>-0.1035975997916117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02821067363895761</v>
+        <v>0.0751557768425898</v>
       </c>
       <c r="C65">
-        <v>0.005354847194401727</v>
+        <v>-0.05797348636771128</v>
       </c>
       <c r="D65">
-        <v>0.1158952975655637</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01653687185997859</v>
+      </c>
+      <c r="E65">
+        <v>0.0383482759354406</v>
+      </c>
+      <c r="F65">
+        <v>0.02801552217243757</v>
+      </c>
+      <c r="G65">
+        <v>-0.04284163543637897</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.006398912794269941</v>
+        <v>0.05091028550065815</v>
       </c>
       <c r="C66">
-        <v>-0.02096464290874989</v>
+        <v>-0.1070949996600385</v>
       </c>
       <c r="D66">
-        <v>0.1339318899127979</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01167059860132895</v>
+      </c>
+      <c r="E66">
+        <v>0.04005563768392635</v>
+      </c>
+      <c r="F66">
+        <v>0.03415108481508948</v>
+      </c>
+      <c r="G66">
+        <v>-0.1043496529871605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.02643482486114678</v>
+        <v>0.05410278722709596</v>
       </c>
       <c r="C67">
-        <v>0.0360940424118525</v>
+        <v>-0.03386882583787008</v>
       </c>
       <c r="D67">
-        <v>0.05949102558069178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005924919484465809</v>
+      </c>
+      <c r="E67">
+        <v>-0.001711810770821362</v>
+      </c>
+      <c r="F67">
+        <v>-0.01737084110043936</v>
+      </c>
+      <c r="G67">
+        <v>-0.07481074252640173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.187126528579508</v>
+        <v>0.1559216783489983</v>
       </c>
       <c r="C68">
-        <v>0.1844110857747909</v>
+        <v>0.2686966082050025</v>
       </c>
       <c r="D68">
-        <v>-0.1594402675525954</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005504188579331614</v>
+      </c>
+      <c r="E68">
+        <v>0.01266771422063965</v>
+      </c>
+      <c r="F68">
+        <v>-0.0374940956455312</v>
+      </c>
+      <c r="G68">
+        <v>-0.02971343041942923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.02226911389419152</v>
+        <v>0.08275852139673559</v>
       </c>
       <c r="C69">
-        <v>0.03354291824389426</v>
+        <v>-0.07020190492706214</v>
       </c>
       <c r="D69">
-        <v>0.07705613348813109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008971481639340155</v>
+      </c>
+      <c r="E69">
+        <v>-0.02093323935140475</v>
+      </c>
+      <c r="F69">
+        <v>-0.03823426127165176</v>
+      </c>
+      <c r="G69">
+        <v>-0.1020211952898859</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1516877523771854</v>
+        <v>0.1412975807066949</v>
       </c>
       <c r="C71">
-        <v>0.1590655307462731</v>
+        <v>0.2303272733495758</v>
       </c>
       <c r="D71">
-        <v>-0.1116493661713371</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.003085865266094185</v>
+      </c>
+      <c r="E71">
+        <v>0.03295706269632045</v>
+      </c>
+      <c r="F71">
+        <v>-0.02563743036136615</v>
+      </c>
+      <c r="G71">
+        <v>-0.07170526777614106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.01028522741997313</v>
+        <v>0.08521544021178701</v>
       </c>
       <c r="C72">
-        <v>0.01951296846779939</v>
+        <v>-0.06736497428856728</v>
       </c>
       <c r="D72">
-        <v>0.105945590797546</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008308295389876905</v>
+      </c>
+      <c r="E72">
+        <v>-0.007497237003654861</v>
+      </c>
+      <c r="F72">
+        <v>0.0363534471856868</v>
+      </c>
+      <c r="G72">
+        <v>-0.08883005135359472</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1834728182780544</v>
+        <v>0.3768408147649638</v>
       </c>
       <c r="C73">
-        <v>0.1642011369467756</v>
+        <v>-0.1171754995876593</v>
       </c>
       <c r="D73">
-        <v>0.272028559948319</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02069322746246171</v>
+      </c>
+      <c r="E73">
+        <v>0.07219124342097204</v>
+      </c>
+      <c r="F73">
+        <v>0.5828817942991097</v>
+      </c>
+      <c r="G73">
+        <v>0.2917514981912973</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.03068050471301213</v>
+        <v>0.1048353111733725</v>
       </c>
       <c r="C74">
-        <v>0.042076500778142</v>
+        <v>-0.1097764678508287</v>
       </c>
       <c r="D74">
-        <v>0.1725346896239238</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009543691848875826</v>
+      </c>
+      <c r="E74">
+        <v>-0.008152464778992452</v>
+      </c>
+      <c r="F74">
+        <v>-0.06901119025878716</v>
+      </c>
+      <c r="G74">
+        <v>-0.0818309987003337</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.08072625326234512</v>
+        <v>0.2469064830202895</v>
       </c>
       <c r="C75">
-        <v>0.1044351100130175</v>
+        <v>-0.15338019920557</v>
       </c>
       <c r="D75">
-        <v>0.2998075256443822</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03088726196719891</v>
+      </c>
+      <c r="E75">
+        <v>-0.06755477621442474</v>
+      </c>
+      <c r="F75">
+        <v>-0.1670548479117833</v>
+      </c>
+      <c r="G75">
+        <v>0.02087834804205588</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.03789655227953069</v>
+        <v>0.1182570582488769</v>
       </c>
       <c r="C76">
-        <v>0.05822015667641959</v>
+        <v>-0.1099601973097923</v>
       </c>
       <c r="D76">
-        <v>0.2085600543404979</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01793869812461671</v>
+      </c>
+      <c r="E76">
+        <v>-0.02563583304549014</v>
+      </c>
+      <c r="F76">
+        <v>-0.1049318428607576</v>
+      </c>
+      <c r="G76">
+        <v>-0.05953138649780455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01737116924030514</v>
+        <v>0.07047668041118973</v>
       </c>
       <c r="C77">
-        <v>0.00405332280375893</v>
+        <v>-0.06156636599620612</v>
       </c>
       <c r="D77">
-        <v>0.08224380818654113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01025469398010032</v>
+      </c>
+      <c r="E77">
+        <v>0.04772144663981957</v>
+      </c>
+      <c r="F77">
+        <v>0.01414258052599621</v>
+      </c>
+      <c r="G77">
+        <v>-0.06226690816436637</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.008792173140388059</v>
+        <v>0.04304290925232327</v>
       </c>
       <c r="C78">
-        <v>0.00414617385485364</v>
+        <v>-0.04919554233701138</v>
       </c>
       <c r="D78">
-        <v>0.06250744252146902</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.00584415156663117</v>
+      </c>
+      <c r="E78">
+        <v>0.02834111023576581</v>
+      </c>
+      <c r="F78">
+        <v>0.03581454093711572</v>
+      </c>
+      <c r="G78">
+        <v>-0.1034019677047045</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>8.164410715301417e-05</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0004936829650592344</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>6.107380061946454e-06</v>
+      </c>
+      <c r="E79">
+        <v>0.0008063171150320313</v>
+      </c>
+      <c r="F79">
+        <v>0.0006561694535916904</v>
+      </c>
+      <c r="G79">
+        <v>0.001035772744081175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03003487561291503</v>
+        <v>0.04313241184928245</v>
       </c>
       <c r="C80">
-        <v>0.01554464091966216</v>
+        <v>-0.05156641792860134</v>
       </c>
       <c r="D80">
-        <v>0.08204474181480349</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01330392959007497</v>
+      </c>
+      <c r="E80">
+        <v>0.0258027483177433</v>
+      </c>
+      <c r="F80">
+        <v>0.01110714801928809</v>
+      </c>
+      <c r="G80">
+        <v>-0.05453137277207992</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.04880007637746615</v>
+        <v>0.1367717588281578</v>
       </c>
       <c r="C81">
-        <v>0.06114664373186498</v>
+        <v>-0.09604568964688089</v>
       </c>
       <c r="D81">
-        <v>0.1669268536505054</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01475539514870326</v>
+      </c>
+      <c r="E81">
+        <v>-0.03257905794171417</v>
+      </c>
+      <c r="F81">
+        <v>-0.1254577608511438</v>
+      </c>
+      <c r="G81">
+        <v>-0.02178796073914601</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1331358312520354</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08076944951993809</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.009531877843173536</v>
+      </c>
+      <c r="E82">
+        <v>-0.09987072803485081</v>
+      </c>
+      <c r="F82">
+        <v>-0.0518534351506552</v>
+      </c>
+      <c r="G82">
+        <v>-0.06339082387815755</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01459024017316211</v>
+        <v>0.03633783208409294</v>
       </c>
       <c r="C83">
-        <v>0.01037368479433803</v>
+        <v>-0.02822229564485238</v>
       </c>
       <c r="D83">
-        <v>0.02602401843553366</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.005960677194476485</v>
+      </c>
+      <c r="E83">
+        <v>0.03012152161019443</v>
+      </c>
+      <c r="F83">
+        <v>0.02993377332674167</v>
+      </c>
+      <c r="G83">
+        <v>-0.06361614860683491</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.07442196384613679</v>
+        <v>0.2118862987042713</v>
       </c>
       <c r="C85">
-        <v>0.07884318598483429</v>
+        <v>-0.1480572916406115</v>
       </c>
       <c r="D85">
-        <v>0.2774326803373267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0170096294203054</v>
+      </c>
+      <c r="E85">
+        <v>-0.1016156992516055</v>
+      </c>
+      <c r="F85">
+        <v>-0.1209922220967736</v>
+      </c>
+      <c r="G85">
+        <v>0.06197455674031842</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01613747784767545</v>
+        <v>0.01467128023153589</v>
       </c>
       <c r="C86">
-        <v>0.01015398448306132</v>
+        <v>-0.0253902659177993</v>
       </c>
       <c r="D86">
-        <v>0.04340377689397496</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01148657223721091</v>
+      </c>
+      <c r="E86">
+        <v>0.05119879302277476</v>
+      </c>
+      <c r="F86">
+        <v>0.01863456139836758</v>
+      </c>
+      <c r="G86">
+        <v>-0.1914286510846416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.001754355540530081</v>
+        <v>0.02142631172891396</v>
       </c>
       <c r="C87">
-        <v>-0.01082012837040939</v>
+        <v>-0.02188192461746125</v>
       </c>
       <c r="D87">
-        <v>0.03683615997114012</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01189726130389739</v>
+      </c>
+      <c r="E87">
+        <v>0.09346322611278497</v>
+      </c>
+      <c r="F87">
+        <v>0.009281578418191931</v>
+      </c>
+      <c r="G87">
+        <v>-0.1223632531172415</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04274398180115293</v>
+        <v>0.09425135531583212</v>
       </c>
       <c r="C88">
-        <v>0.0126773908462742</v>
+        <v>-0.06853416526813418</v>
       </c>
       <c r="D88">
-        <v>0.04938550076895593</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02226466961326976</v>
+      </c>
+      <c r="E88">
+        <v>-0.003360696277446597</v>
+      </c>
+      <c r="F88">
+        <v>-0.02099617873585952</v>
+      </c>
+      <c r="G88">
+        <v>-0.1035530499113313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2780537715585031</v>
+        <v>0.2332231497382402</v>
       </c>
       <c r="C89">
-        <v>0.2873317502024418</v>
+        <v>0.3681331368072404</v>
       </c>
       <c r="D89">
-        <v>-0.1920724063031634</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0004843384556175247</v>
+      </c>
+      <c r="E89">
+        <v>-0.0185225442981749</v>
+      </c>
+      <c r="F89">
+        <v>-0.02659552395728274</v>
+      </c>
+      <c r="G89">
+        <v>-0.07048517511069048</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2265529801275545</v>
+        <v>0.208551309370605</v>
       </c>
       <c r="C90">
-        <v>0.2388114293235821</v>
+        <v>0.3166929759467201</v>
       </c>
       <c r="D90">
-        <v>-0.1764697042089776</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004803438388900932</v>
+      </c>
+      <c r="E90">
+        <v>0.002115038847206998</v>
+      </c>
+      <c r="F90">
+        <v>-0.04791176321758038</v>
+      </c>
+      <c r="G90">
+        <v>-0.0437004109605808</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07059672553380582</v>
+        <v>0.1848935489109492</v>
       </c>
       <c r="C91">
-        <v>0.0936437613693842</v>
+        <v>-0.1426533408083527</v>
       </c>
       <c r="D91">
-        <v>0.2300234833402837</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02175618916463412</v>
+      </c>
+      <c r="E91">
+        <v>-0.06262785322215571</v>
+      </c>
+      <c r="F91">
+        <v>-0.1419277286310349</v>
+      </c>
+      <c r="G91">
+        <v>-0.03397448101298143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1849938782385344</v>
+        <v>0.1997972707652733</v>
       </c>
       <c r="C92">
-        <v>0.2387522730024664</v>
+        <v>0.2569645126280285</v>
       </c>
       <c r="D92">
-        <v>-0.07927599691520851</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03816308095283443</v>
+      </c>
+      <c r="E92">
+        <v>0.04433008351308101</v>
+      </c>
+      <c r="F92">
+        <v>-0.06021081773041405</v>
+      </c>
+      <c r="G92">
+        <v>-0.1139538381928858</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2369126436844145</v>
+        <v>0.2316940627694948</v>
       </c>
       <c r="C93">
-        <v>0.2572753461925826</v>
+        <v>0.3129385924849454</v>
       </c>
       <c r="D93">
-        <v>-0.1443782233689593</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01139456817293338</v>
+      </c>
+      <c r="E93">
+        <v>0.005619160909596071</v>
+      </c>
+      <c r="F93">
+        <v>-0.04325317975233923</v>
+      </c>
+      <c r="G93">
+        <v>-0.05929472069586784</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1168919891597721</v>
+        <v>0.3187235328118739</v>
       </c>
       <c r="C94">
-        <v>0.1143033706809809</v>
+        <v>-0.1801757119031571</v>
       </c>
       <c r="D94">
-        <v>0.3104577735074441</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01853441788863685</v>
+      </c>
+      <c r="E94">
+        <v>-0.2101325535674327</v>
+      </c>
+      <c r="F94">
+        <v>-0.4799731798286879</v>
+      </c>
+      <c r="G94">
+        <v>0.4140774331872638</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.001744883049280765</v>
+        <v>0.1006967001524701</v>
       </c>
       <c r="C95">
-        <v>0.01255876562008108</v>
+        <v>-0.08815998446709239</v>
       </c>
       <c r="D95">
-        <v>0.1208214265314811</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009861822152128981</v>
+      </c>
+      <c r="E95">
+        <v>0.0832266323304271</v>
+      </c>
+      <c r="F95">
+        <v>0.189744815937859</v>
+      </c>
+      <c r="G95">
+        <v>-0.0166693643877745</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1003385214145595</v>
+        <v>0.1949436561082242</v>
       </c>
       <c r="C98">
-        <v>0.1278451374218896</v>
+        <v>-0.04494792523906405</v>
       </c>
       <c r="D98">
-        <v>0.1263664707640871</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01360498149625898</v>
+      </c>
+      <c r="E98">
+        <v>0.06768681264368383</v>
+      </c>
+      <c r="F98">
+        <v>0.2390183479826177</v>
+      </c>
+      <c r="G98">
+        <v>0.02793701275845312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01088496957816602</v>
+        <v>0.008881268101956535</v>
       </c>
       <c r="C101">
-        <v>0.002809309019717352</v>
+        <v>-0.02334955615013743</v>
       </c>
       <c r="D101">
-        <v>0.0193109595359845</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009085407045087099</v>
+      </c>
+      <c r="E101">
+        <v>0.004077283581753494</v>
+      </c>
+      <c r="F101">
+        <v>-0.01530822481026936</v>
+      </c>
+      <c r="G101">
+        <v>-0.09545037455538989</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0474175131200107</v>
+        <v>0.1155636707516277</v>
       </c>
       <c r="C102">
-        <v>0.04033376535172416</v>
+        <v>-0.0840977437709069</v>
       </c>
       <c r="D102">
-        <v>0.1361621598723505</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0008443249638274375</v>
+      </c>
+      <c r="E102">
+        <v>-0.03526783865691845</v>
+      </c>
+      <c r="F102">
+        <v>-0.04241684197836661</v>
+      </c>
+      <c r="G102">
+        <v>-0.01107415605359903</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.7266929448631774</v>
+        <v>0.02138444431608946</v>
       </c>
       <c r="C104">
-        <v>-0.673442785223353</v>
+        <v>0.03048259657485308</v>
       </c>
       <c r="D104">
-        <v>-0.03326973715149551</v>
+        <v>0.9878845358956965</v>
+      </c>
+      <c r="E104">
+        <v>-0.04785098296794997</v>
+      </c>
+      <c r="F104">
+        <v>-0.03496666769386354</v>
+      </c>
+      <c r="G104">
+        <v>0.03931342273117027</v>
       </c>
     </row>
   </sheetData>
